--- a/TRenesas_MCU_110H/octopart_price.xlsx
+++ b/TRenesas_MCU_110H/octopart_price.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="500" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="octopart_price" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,8 +52,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -419,10 +421,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="L349" sqref="L349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -7706,7 +7708,6 @@
           <t>Mouser</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
           <t>968-R5F11BCCALA#U0</t>
@@ -7757,7 +7758,6 @@
           <t>Chip One Stop</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
           <t>C1S620200732873</t>
@@ -7808,7 +7808,6 @@
           <t>Avnet</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
           <t>R5F11BCCALA#U0</t>
@@ -7819,8 +7818,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
           <t>--</t>
@@ -7830,6 +7827,6699 @@
         <is>
           <t>2023-06-27</t>
         </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>R5F100AAGSP#30</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>968-R5F100AAGSP#30</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1,260</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>1.530</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>R5F100AAGSP#30</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>R5F100AAGSP#30-ND</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>1.785</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>R5F100AAGSP#30</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4146935</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>1.666</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>R5F100AAGSP#30</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4146935</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>1.656</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>R5F100AAGSP#30</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>68AK9522</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>2.350</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>R5F11ZBAAFP#10</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>R5F11ZBAAFP#10</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>R5F11TLGDFB#35</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>968-R5F11TLGDFB35</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>3.790</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>R5F11TLGDFB#35</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>559-R5F11TLGDFB#35-ND</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>4.371</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>R5F11TLGDFB#35</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>C1S620202210816</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2.390</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>R5F11TLGDFB#35</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4147114</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>4.156</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>R5F11TLGDFB#35</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4147114</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>3.377</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>R5F10RLCAFB#30</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>968-R5F10RLCAFB#30</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>1.800</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>R5F10RLCAFB#30</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>559-R5F10RLCAFB#30-ND</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>1.969</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>R5F10RLCAFB#30</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3364713</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>2.203</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>R5F10RLCAFB#30</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2630116P</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>2.239</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>R5F10RLCAFB#30</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>54AH6813</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2.010</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>R5F1016AASM#50</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>R5F1016AASM#50</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>R5F523E6AGFL#30</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>968-R5F523E6AGFL30</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>11.510</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>R5F523E6AGFL#30</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>559-R5F523E6AGFL#30-ND</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>11.501</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>R5F523E6AGFL#30</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>R5F523E6AGFL#30</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>R7F100GMH2DFB#AA0</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>R7F100GMH2DFB#AA0</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>R7F100GMH2DFB#AA0</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>968-R7F100GMH2DFBAA0</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>2.830</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>R5F103A9ASP#30</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>968-R5F103A9ASP#30</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>1,680</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>1.170</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>R5F103A9ASP#30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>R5F103A9ASP#30-ND</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>1.365</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>R5F563NFHDFB#10</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3153406</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>R5F563NFHDFB#10</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>R5F563NFHDFB#10</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>R7FA2E1A92DNH#BA0</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>R7FA2E1A92DNH#BA0</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>R5F101SLAFB#50</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>R5F101SLAFB#50</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>R5F104GGGFB#10</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>R5F104GGGFB#10</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>R5F100PFAFB#10</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>R5F100PFAFB#10</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>R5F571MFDDLK#20</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>R5F571MFDDLK#20</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>R8A774E0HA01BN#G0</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>R8A774E0HA01BN#G0</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>R8A774E0HA01BN#G0</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3770381</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Tape &amp; Reel</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>R5F101FFAFP#V0</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>C1S620200452427</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>1.990</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>R5F10PMJCKFB#15</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>R5F10PMJCKFB#15</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>R7FS5D57C3A01CLK#AC1</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>R7FS5D57C3A01CLK#AC1</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>R5F5651CDDFC#30</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>968-R5F5651CDDFC#30</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>423</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K202" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>R5F5651CDDFC#30</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>3941867</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>10.776</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K203" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>R5F5651CDDFC#30</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>R5F5651CDDFC#30</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K204" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>R5F5651CDDFC#30</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>3</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2630155P</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K205" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>R5F5651CDDFC#30</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>3941867</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>10.632</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K206" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>R5F52106BDFL#30</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>968-R5F52106BDFL#30</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>500</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K207" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>R5F52106BDFL#30</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Chip One Stop Global</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>C1S620201983960</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>2111</v>
+      </c>
+      <c r="I208" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K208" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>R5F52106BDFL#30</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>3224853</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>8.843999999999999</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K209" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>R5F52106BDFL#30</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>3224853</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>8.516999999999999</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K210" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>R5F52106BDFL#30</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>29AH1269</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K211" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>R5F1018EALA#U0</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>968-R5F1018EALA#U0</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>980</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K212" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>R5F1018EALA#U0</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>R5F1018EALA#U0</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K213" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#10</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#10</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K214" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>R5F5631ECDBG#U0</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>R5F5631ECDBG#U0</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K215" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>R7F100GGH3CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>R7F100GGH3CFB#AA0</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K216" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>R7F100GGH3CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>968-R7F100GGH3CFBAA0</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K217" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>R5F101PHAFB#50</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>R5F101PHAFB#50</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K218" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>R5F10378ANA#45</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>R5F10378ANA#45</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K219" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>R5F100AEASP#V0</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>2135248</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>2.604</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K220" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>R5F100AEASP#V0</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2135248</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2.412</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K221" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>R5F100AEASP#V0</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>84AC2599</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K222" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>R5F100BGGNA#20</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>968-R5F100BGGNA#20</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>980</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K223" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>R5F100BGGNA#20</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>R5F100BGGNA#20</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K224" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>R5F571MGDDLK#20</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>R5F571MGDDLK#20</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K225" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>R5F565N4ADLJ#20</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>968-R5F565N4ADLJ#20</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>416</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K226" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>R5F565N4ADLJ#20</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>R5F565N4ADLJ#20</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K227" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>R5F566TEADFF#30</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>968-R5F566TEADFF#30</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>270</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K228" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>R5F566TFCGFB#30</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>R5F566TFCGFB#30</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K229" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>968-R7FA2E1A72DFMAA0</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>1228</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K230" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>6147720</v>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>1060</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K231" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>559-R7FA2E1A72DFM#AA0-ND</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>499</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>2.491</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K232" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>C1S620201376735</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>168</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K233" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>4147260</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1.953</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K234" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>R5F563NECDBG#U0</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>C1S620200457006</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>4</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K235" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>R5F563NECDBG#U0</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>R5F563NECDBG#U0</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K236" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>R5F572NDDGBD#20</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>968-R5F572NDDGBD#20</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>160</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K237" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>R5F572NDDGBD#20</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>R5F572NDDGBD#20</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K238" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>R5F104GHGNA#40</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>R5F104GHGNA#40</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K239" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>R5F51403ADNE#10</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>R5F51403ADNE#10</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K240" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>R5F11W67DSM#30</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>968-R5F11W67DSM#30</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>1925</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K241" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>R5F11W67DSM#30</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>R5F11W67DSM#30</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K242" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>R5F564MFHDBG#21</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>R5F564MFHDBG#21</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K243" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>R5F56609CGFM#10</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>R5F56609CGFM#10</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K244" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>R5F10268GSP#55</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>C1S620202210074</t>
+        </is>
+      </c>
+      <c r="G245" s="2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Cut Tape</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K245" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>R5F10268GSP#55</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>R5F10268GSP#55</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K246" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>R7FA6T2BD3CNE#AA1</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>968-R7FA6T2BD3CNEAA1</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K247" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>R5F56604DGFN#30</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>R5F56604DGFN#30</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K248" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>R5F56604DGFN#30</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>968-R5F56604DGFN#30</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>7</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K249" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>R7FA2E2A53CNJ#BA1</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>R7FA2E2A53CNJ#BA1</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K250" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>968-RTK9744C22S010BE</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>25</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Bulk</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>585</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K251" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>2332459</v>
+      </c>
+      <c r="G252" t="n">
+        <v>5</v>
+      </c>
+      <c r="I252" t="n">
+        <v>558.4299999999999</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K252" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>RTK9744C22S01000BE</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>4</v>
+      </c>
+      <c r="I253" t="n">
+        <v>541.37</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K253" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>3810353</v>
+      </c>
+      <c r="G254" t="n">
+        <v>14</v>
+      </c>
+      <c r="I254" t="n">
+        <v>642.01</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K254" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>2150586</v>
+      </c>
+      <c r="G255" t="n">
+        <v>4</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Bag</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>573.53</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K255" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>R9A07G044C22GBG#YJ0</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>50</v>
+      </c>
+      <c r="I256" t="n">
+        <v>8.183999999999999</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K256" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>8150585</v>
+      </c>
+      <c r="G257" t="n">
+        <v>50</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K257" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Chip One Stop Global</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>C1S620202133401</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>25</v>
+      </c>
+      <c r="I258" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K258" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>4168413</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Kit</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>613.36</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K259" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>968-K9744C26S01000BE</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>666.02</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K260" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>2</v>
+      </c>
+      <c r="F261" t="n">
+        <v>8158340</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K261" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>R9A07G044C26GBG#BC0</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K262" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>968-A07G044C22GBGAC0</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>488</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K263" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>3</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2396203P</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>119</v>
+      </c>
+      <c r="I264" t="n">
+        <v>17.117</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K264" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>3879432</v>
+      </c>
+      <c r="G265" t="n">
+        <v>246</v>
+      </c>
+      <c r="I265" t="n">
+        <v>19.376</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K265" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>559-R9A07G044C22GBG#AC0-ND</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>226</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>17.327</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K266" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>C1S620201127467</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>20</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Bulk</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K267" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>R9A07G044C12GBG#BC0</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K268" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>R9A07G044C16GBG#AC0</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K269" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>R9A07G044C12GBG#AC0</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K270" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>559-R9A07G044C26GBG#AC0-ND</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>119</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>16.045</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K271" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>R9A07G044C26GBG#AC0</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K272" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>R9A07G044C16GBG#BC0</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K273" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>R5F571MGCGFC#V0</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>R5F571MGCGFC#V0</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K274" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>R7FA2E2A34CNK#HA1</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>R7FA2E2A34CNK#HA1</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K275" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>R5F140PKGFB#50</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>R5F140PKGFB#50</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K276" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>R7S910028CBG#AC0</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>R7S910028CBG#AC0-ND</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>67</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K277" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>R7S910028CBG#AC0</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>C1S620200708830</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>4</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K278" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>R7S910028CBG#AC0</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>R7S910028CBG#AC0</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K279" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>R5F571MLCDFB#V0</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>R5F571MLCDFB#V0</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K280" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>R5F56604GGFB#30</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>R5F56604GGFB#30</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K281" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>R5F56604GGFB#30</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>968-R5F56604GGFB#30</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K282" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>R7F100GLL3CFA#HA0</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>R7F100GLL3CFA#HA0</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K283" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>R5F100CGALA#U0</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>968-R5F100CGALA#U0</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>980</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K284" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>R5F100CGALA#U0</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>R5F100CGALA#U0</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>120</v>
+      </c>
+      <c r="I285" t="n">
+        <v>5.433</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K285" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>R5F100CGALA#U0</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>2</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>R5F100CGALA#U0</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>120</v>
+      </c>
+      <c r="I286" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K286" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>R5F100CGALA#U0</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>C1S620200643825</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>17</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K287" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>R5F100CGALA#U0</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Digi-Key Marketplace</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2156-R5F100CGALA#U0-ND</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Bulk</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K288" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>968-R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="G289" s="2" t="n">
+        <v>60409</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K289" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>9016149</v>
+      </c>
+      <c r="G290" t="n">
+        <v>90</v>
+      </c>
+      <c r="I290" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K290" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>645</v>
+      </c>
+      <c r="I291" t="n">
+        <v>24.664</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K291" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>645</v>
+      </c>
+      <c r="I292" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K292" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A-ND</t>
+        </is>
+      </c>
+      <c r="G293" s="2" t="n">
+        <v>3537</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>2.977</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K293" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Digi-Key Marketplace</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2156-R5F51115ADFM#3A-ND</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Bulk</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K294" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>R5F104BFGFP#30</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>968-R5F104BFGFP#30</t>
+        </is>
+      </c>
+      <c r="G295" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K295" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>R5F563NACDLJ#U0</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>R5F563NACDLJ#U0</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K296" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>R5F52107CDFN#10</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>R5F52107CDFN#10</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K297" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>R5F56514EDFB#30</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>968-R5F56514EDFB#30</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>240</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K298" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>R5F100EEANA#20</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>R5F100EEANA#20</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K299" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>R5F11TLEDFB#55</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>R5F11TLEDFB#55</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K300" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>R5F56514FDLK#20</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>968-R5F56514FDLK#20</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>416</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K301" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>R5F56514FDLK#20</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>R5F56514FDLK#20</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K302" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>968-R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="G303" s="2" t="n">
+        <v>10812</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K303" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30-ND</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>300</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K304" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>4146981</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>3.098</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K305" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>4146981</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2.729</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K306" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>68AK9563</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K307" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>R5F572TKCGFB#10</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>968-R5F572TKCGFB10</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>480</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K308" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>R5F572TKCGFB#10</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>R5F572TKCGFB#10</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K309" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>R5F51406ADNE#30</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>5174269</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K310" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>R5F51406ADNE#30</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>R5F51406ADNE#30</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K311" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>R5F51406ADNE#30</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>968-R5F51406ADNE#30</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K312" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>R5F100ADGSP#10</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>R5F100ADGSP#10</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K313" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>R5F572NDDDFC#30</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>968-R5F572NDDDFC#30</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>120</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K314" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>R5F572NDDDFC#30</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>559-R5F572NDDDFC#30-ND</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>120</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>14.479</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K315" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>R5F572NDDDFC#30</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>R5F572NDDDFC#30</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K316" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>R5F104PGAFB#10</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>R5F104PGAFB#10</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K317" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>R5F5210ABDLK#U0</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>R5F5210ABDLK#U0</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K318" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>R5F104FJAFP#10</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>6142828</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K319" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>R5F104FJAFP#10</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>R5F104FJAFP#10</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K320" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>R5F100FDGFP#10</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>R5F100FDGFP#10</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K321" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>R5F100FCGFP#30</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>968-R5F100FCGFP#30</t>
+        </is>
+      </c>
+      <c r="G322" s="2" t="n">
+        <v>1120</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K322" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>R5F100FCGFP#30</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>559-R5F100FCGFP#30-ND</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>659</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Tray</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K323" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>R5F104LGGFP#50</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>R5F104LGGFP#50</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K324" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>R7S910036CBG#AC0</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>3261367</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Tape &amp; Reel</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>27.002</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K325" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>R7S910036CBG#AC0</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>R7S910036CBG#AC0</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K326" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>R7S910036CBG#AC0</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>3261367</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Tape &amp; Reel</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K327" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>R7S910036CBG#AC0</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>39AH9115</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K328" s="1" t="n">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>R5F10RJ8GFA#10</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>R5F10RJ8GFA#10</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K329" s="1" t="n">
+        <v>45105</v>
       </c>
     </row>
   </sheetData>
